--- a/Dataset/Folds/Fold_2/Excel/94.xlsx
+++ b/Dataset/Folds/Fold_2/Excel/94.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="195">
   <si>
     <t>Doi</t>
   </si>
@@ -601,6 +601,49 @@
   </si>
   <si>
     <t>[Karen%Chui%NULL%1,                           Amit%Thakrar%NULL%1,                           Shivakumar%Shankar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%0,                            Sanjit R.%Konda%NULL%0,                            Mackenzie L.%Bird%NULL%0,                            Nicket%Dedhia%NULL%0,                            Emma K.%Landes%NULL%0,                            Rachel A.%Ranson%NULL%0,                            Sara J.%Solasz%NULL%0,                            Vinay K.%Aggarwal%NULL%0,                            Joseph A.%Bosco%NULL%0,                            David L.%Furgiuele%NULL%0,                            Abhishek%Ganta%NULL%0,                            Jason%Gould%NULL%0,                            Thomas R.%Lyon%NULL%0,                            Toni M.%McLaurin%NULL%0,                            Nirmal C.%Tejwani%NULL%0,                            Joseph D.%Zuckerman%NULL%0,                            Philipp%Leucht%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%0,                            Maxwell A.%Konnaris%NULL%0,                            Gregory C.%Ghahramani%NULL%0,                            Ajay%Premkumar%NULL%0,                            Chris J.%DeFrancesco%NULL%0,                            Jordan A.%Gruskay%NULL%0,                            Aleksey%Dvorzhinskiy%NULL%0,                            Milan S.%Sandhu%NULL%0,                            Elan M.%Goldwyn%NULL%0,                            Christopher L.%Mendias%NULL%0,                            William M.%Ricci%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Amit%Thakrar%NULL%1,                            Karen%Chui%NULL%1,                            Akhil%Kapoor%NULL%1,                            John%Hambidge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Karen%Chui%NULL%1,                            Amit%Thakrar%NULL%1,                            Shivakumar%Shankar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%0,                             Sanjit R.%Konda%NULL%0,                             Mackenzie L.%Bird%NULL%0,                             Nicket%Dedhia%NULL%0,                             Emma K.%Landes%NULL%0,                             Rachel A.%Ranson%NULL%0,                             Sara J.%Solasz%NULL%0,                             Vinay K.%Aggarwal%NULL%0,                             Joseph A.%Bosco%NULL%0,                             David L.%Furgiuele%NULL%0,                             Abhishek%Ganta%NULL%0,                             Jason%Gould%NULL%0,                             Thomas R.%Lyon%NULL%0,                             Toni M.%McLaurin%NULL%0,                             Nirmal C.%Tejwani%NULL%0,                             Joseph D.%Zuckerman%NULL%0,                             Philipp%Leucht%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%0,                             Maxwell A.%Konnaris%NULL%0,                             Gregory C.%Ghahramani%NULL%0,                             Ajay%Premkumar%NULL%0,                             Chris J.%DeFrancesco%NULL%0,                             Jordan A.%Gruskay%NULL%0,                             Aleksey%Dvorzhinskiy%NULL%0,                             Milan S.%Sandhu%NULL%0,                             Elan M.%Goldwyn%NULL%0,                             Christopher L.%Mendias%NULL%0,                             William M.%Ricci%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Amit%Thakrar%NULL%1,                             Karen%Chui%NULL%1,                             Akhil%Kapoor%NULL%1,                             John%Hambidge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Karen%Chui%NULL%1,                             Amit%Thakrar%NULL%1,                             Shivakumar%Shankar%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplemental Digital Content is Available in the Text.
+</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%0, Sanjit R.%Konda%NULL%0, Mackenzie L.%Bird%NULL%0, Nicket%Dedhia%NULL%0, Emma K.%Landes%NULL%0, Rachel A.%Ranson%NULL%0, Sara J.%Solasz%NULL%0, Vinay K.%Aggarwal%NULL%0, Joseph A.%Bosco%NULL%0, David L.%Furgiuele%NULL%0, Abhishek%Ganta%NULL%0, Jason%Gould%NULL%0, Thomas R.%Lyon%NULL%0, Toni M.%McLaurin%NULL%0, Nirmal C.%Tejwani%NULL%0, Joseph D.%Zuckerman%NULL%0, Philipp%Leucht%NULL%0]</t>
+  </si>
+  <si>
+    <t>Journal of Orthopaedic Trauma</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%0, Maxwell A.%Konnaris%NULL%0, Gregory C.%Ghahramani%NULL%0, Ajay%Premkumar%NULL%0, Chris J.%DeFrancesco%NULL%0, Jordan A.%Gruskay%NULL%0, Aleksey%Dvorzhinskiy%NULL%0, Milan S.%Sandhu%NULL%0, Elan M.%Goldwyn%NULL%0, Christopher L.%Mendias%NULL%0, William M.%Ricci%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Amit%Thakrar%NULL%0, Karen%Chui%NULL%0, Akhil%Kapoor%NULL%1, John%Hambidge%NULL%1]</t>
+  </si>
+  <si>
+    <t>The British Editorial Society of Bone and Joint Surgery</t>
   </si>
 </sst>
 </file>
@@ -921,28 +964,28 @@
         <v>44075.0</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
         <v>46</v>
       </c>
       <c r="J2" t="s">
-        <v>152</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -956,10 +999,10 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>189</v>
       </c>
       <c r="E3" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="F3" t="s">
         <v>23</v>
@@ -971,10 +1014,10 @@
         <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4">
@@ -988,10 +1031,10 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>189</v>
       </c>
       <c r="E4" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="F4" t="s">
         <v>28</v>
@@ -1003,10 +1046,10 @@
         <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5">
@@ -1020,10 +1063,10 @@
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>189</v>
       </c>
       <c r="E5" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -1035,10 +1078,10 @@
         <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6">
@@ -1049,28 +1092,28 @@
         <v>44075.0</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
         <v>46</v>
       </c>
       <c r="J6" t="s">
-        <v>152</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
@@ -1087,7 +1130,7 @@
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
         <v>36</v>
@@ -1099,10 +1142,10 @@
         <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
